--- a/PPKPL_UAS_M. FARID PEBRIAN_NIM. 2110817210015.xlsx
+++ b/PPKPL_UAS_M. FARID PEBRIAN_NIM. 2110817210015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bba3c6d92458433/Perkuliahan/Semester 6/PPKPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\TwitterTest-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76FC96D-E17E-4DC9-B7FB-6489A8005D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5DCFD-A1F5-4966-A0B5-711ADAD240ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B46FBEE-5B88-4342-A118-C9A100FF7397}"/>
   </bookViews>
@@ -431,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -482,48 +482,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,40 +564,16 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,10 +591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7559B546-DF27-4132-A5BD-C8692A84FAC7}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1120,7 +1055,7 @@
       <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -1140,7 +1075,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="28" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1086,7 @@
       <c r="D11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="25" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +1117,7 @@
       <c r="D12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="25" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1135,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="94.5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
@@ -1211,13 +1146,13 @@
       <c r="D13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -1231,7 +1166,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="78.75">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
@@ -1242,11 +1177,11 @@
       <c r="D14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1193,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -1271,7 +1206,7 @@
       <c r="D15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -1291,7 +1226,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="150">
-      <c r="A16" s="37"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="28" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1237,7 @@
       <c r="D16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="25" t="s">
         <v>81</v>
       </c>
@@ -1320,7 +1255,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="60">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -1333,7 +1268,7 @@
       <c r="D17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="25" t="s">
         <v>64</v>
       </c>
@@ -1351,7 +1286,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="63" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="28" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1297,7 @@
       <c r="D18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="25" t="s">
         <v>63</v>
       </c>
@@ -1380,7 +1315,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="90">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -1393,7 +1328,7 @@
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -1413,7 +1348,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="90">
-      <c r="A20" s="41"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="28" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1359,7 @@
       <c r="D20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="25" t="s">
         <v>74</v>
       </c>
@@ -1443,16 +1378,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PPKPL_UAS_M. FARID PEBRIAN_NIM. 2110817210015.xlsx
+++ b/PPKPL_UAS_M. FARID PEBRIAN_NIM. 2110817210015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\TwitterTest-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5DCFD-A1F5-4966-A0B5-711ADAD240ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F1737C-22A6-4CE3-80D0-1CEFC96DAC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B46FBEE-5B88-4342-A118-C9A100FF7397}"/>
   </bookViews>
@@ -145,15 +145,6 @@
     <t>Berhasil register dengan valid username sampai menuju tahap verifikasi</t>
   </si>
   <si>
-    <t>1. Buka aplikasi
-2. Klik tombol Create Account
-3. Klik tombol Skip for now
-4. Input valid username
-5. Input valid email
-6. Input valid date of birth
-7. Klik tombol Next</t>
-  </si>
-  <si>
     <t>- Username : (username yang belum memiliki akun X)
 - Email : (email yang belum memiliki akun X)
 - Date of Birth : random</t>
@@ -162,34 +153,15 @@
     <t>User diarahkan ke laman verifikasi email</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Buka aplikasi
-2. Klik tombol Create Account
-3. Klik tombol Skip for now
-4. Input invalid username
-</t>
-  </si>
-  <si>
     <t>- Username : (lebih dari 50 karakter)</t>
   </si>
   <si>
     <t>Muncul wording “Must be 50 characters or fewer”</t>
   </si>
   <si>
-    <t>1. Buka aplikasi
-2. Klik tombol Log in
-3. Input invalid email
-4. Klik tombol Next</t>
-  </si>
-  <si>
     <t>Berhasil login dengan valid email sampai menuju tahap input password</t>
   </si>
   <si>
-    <t>1. Buka aplikasi
-2. Klik tombol Log in
-3. Input valid email
-4. Klik tombol Next</t>
-  </si>
-  <si>
     <t>Email : (email yang sudah memiliki akun X)</t>
   </si>
   <si>
@@ -197,14 +169,6 @@
   </si>
   <si>
     <t>Berhasil login menggunakan fitur Continue with Google</t>
-  </si>
-  <si>
-    <t>Memiliki akun X</t>
-  </si>
-  <si>
-    <t>1. Buka aplikasi
-2. Klik tombol Continue with Google
-3. Pilih email yang memiliki akun X</t>
   </si>
   <si>
     <t>Periksa fungsi Post Feed</t>
@@ -310,15 +274,49 @@
     <t>Gagal login dengan email yang salah</t>
   </si>
   <si>
-    <t>Tidak terdapat akun yang login pada X</t>
-  </si>
-  <si>
     <t>1. Klik tombol ikon +
 2. Klik tombol Post
 3. Input invalid teks</t>
   </si>
   <si>
     <t>Muncul penanda pada bagian bawah kolom teks bahwa karakter telah melebihi batas, misal sudah 281 karakter, maka muncul -1, dan tidak bisa klik tombol post</t>
+  </si>
+  <si>
+    <t>1. Klik tombol Create Account
+2. Klik tombol Skip for now
+3. Input valid username
+4. Input valid email
+5 Input valid date of birth
+6. Klik tombol Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Klik tombol Create Account
+2. Klik tombol Skip for now
+3. Input invalid username
+</t>
+  </si>
+  <si>
+    <t>1. Klik tombol Log in
+2. Input invalid email
+3. Klik tombol Next</t>
+  </si>
+  <si>
+    <t>1. Klik tombol Log in
+2. Input valid email
+3. Klik tombol Next</t>
+  </si>
+  <si>
+    <t>- Tidak terdapat akun yang login pada X
+- Berada pada laman login/register</t>
+  </si>
+  <si>
+    <t>1. Klik tombol Continue with Google
+2. Pilih email yang memiliki akun X</t>
+  </si>
+  <si>
+    <t>- Memiliki akun X
+- Belum login pada aplikasi
+- Berada pada laman login/register</t>
   </si>
 </sst>
 </file>
@@ -564,11 +562,11 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7559B546-DF27-4132-A5BD-C8692A84FAC7}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -982,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -1042,7 +1040,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="105">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -1055,17 +1053,17 @@
       <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>24</v>
@@ -1074,8 +1072,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:10" ht="63">
+      <c r="A11" s="32"/>
       <c r="B11" s="28" t="s">
         <v>26</v>
       </c>
@@ -1086,15 +1084,15 @@
       <c r="D11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>24</v>
@@ -1104,7 +1102,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1115,14 +1113,14 @@
         <v>A003</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="25" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>28</v>
@@ -1135,7 +1133,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="94.5">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
@@ -1144,19 +1142,19 @@
         <v>A004</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>24</v>
@@ -1166,7 +1164,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="78.75">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
@@ -1175,13 +1173,13 @@
         <v>A005</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="G14" s="31"/>
       <c r="H14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1192,7 @@
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="A15" s="33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>22</v>
@@ -1204,19 +1202,19 @@
         <v>A006</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>24</v>
@@ -1235,17 +1233,17 @@
         <v>A007</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>24</v>
@@ -1256,7 +1254,7 @@
     </row>
     <row r="17" spans="1:10" ht="60">
       <c r="A17" s="33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>22</v>
@@ -1266,17 +1264,17 @@
         <v>A008</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>24</v>
@@ -1295,17 +1293,17 @@
         <v>A009</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>24</v>
@@ -1316,7 +1314,7 @@
     </row>
     <row r="19" spans="1:10" ht="90">
       <c r="A19" s="33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>22</v>
@@ -1326,19 +1324,19 @@
         <v>A010</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>24</v>
@@ -1357,17 +1355,17 @@
         <v>A011</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>24</v>
@@ -1378,16 +1376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
